--- a/Health_Git.xlsx
+++ b/Health_Git.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="4530" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kyon" sheetId="3" r:id="rId1"/>
@@ -1756,11 +1756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619749928"/>
-        <c:axId val="619752280"/>
+        <c:axId val="617515176"/>
+        <c:axId val="617519880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619749928"/>
+        <c:axId val="617515176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1803,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619752280"/>
+        <c:crossAx val="617519880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619752280"/>
+        <c:axId val="617519880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1862,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619749928"/>
+        <c:crossAx val="617515176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2718,8 +2718,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619750320"/>
-        <c:axId val="619751888"/>
+        <c:axId val="617517920"/>
+        <c:axId val="617515960"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2992,11 +2992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619743656"/>
-        <c:axId val="619740128"/>
+        <c:axId val="617521056"/>
+        <c:axId val="617519096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619750320"/>
+        <c:axId val="617517920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3039,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619751888"/>
+        <c:crossAx val="617515960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3047,7 +3047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619751888"/>
+        <c:axId val="617515960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,12 +3098,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619750320"/>
+        <c:crossAx val="617517920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619740128"/>
+        <c:axId val="617519096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,12 +3140,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619743656"/>
+        <c:crossAx val="617521056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619743656"/>
+        <c:axId val="617521056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="619740128"/>
+        <c:crossAx val="617519096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3779,11 +3779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619744048"/>
-        <c:axId val="619750712"/>
+        <c:axId val="617522232"/>
+        <c:axId val="617511256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619744048"/>
+        <c:axId val="617522232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3826,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619750712"/>
+        <c:crossAx val="617511256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3834,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619750712"/>
+        <c:axId val="617511256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3885,7 +3885,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619744048"/>
+        <c:crossAx val="617522232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5261,11 +5261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619751104"/>
-        <c:axId val="619741696"/>
+        <c:axId val="617517528"/>
+        <c:axId val="617513216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619751104"/>
+        <c:axId val="617517528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5308,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619741696"/>
+        <c:crossAx val="617513216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5316,7 +5316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619741696"/>
+        <c:axId val="617513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +5367,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619751104"/>
+        <c:crossAx val="617517528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6566,8 +6566,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619744832"/>
-        <c:axId val="619747184"/>
+        <c:axId val="617514392"/>
+        <c:axId val="617516744"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6948,11 +6948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619748360"/>
-        <c:axId val="619747576"/>
+        <c:axId val="617526152"/>
+        <c:axId val="617525760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619744832"/>
+        <c:axId val="617514392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,7 +6995,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619747184"/>
+        <c:crossAx val="617516744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7003,7 +7003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619747184"/>
+        <c:axId val="617516744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,12 +7054,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619744832"/>
+        <c:crossAx val="617514392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619747576"/>
+        <c:axId val="617525760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7096,12 +7096,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619748360"/>
+        <c:crossAx val="617526152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619748360"/>
+        <c:axId val="617526152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7111,7 +7111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="619747576"/>
+        <c:crossAx val="617525760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7952,11 +7952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619740520"/>
-        <c:axId val="619748752"/>
+        <c:axId val="617524976"/>
+        <c:axId val="617526544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619740520"/>
+        <c:axId val="617524976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7999,7 +7999,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619748752"/>
+        <c:crossAx val="617526544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8007,7 +8007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619748752"/>
+        <c:axId val="617526544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8058,7 +8058,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619740520"/>
+        <c:crossAx val="617524976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9021,11 +9021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619755808"/>
-        <c:axId val="619754632"/>
+        <c:axId val="617512040"/>
+        <c:axId val="617512824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619755808"/>
+        <c:axId val="617512040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9068,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619754632"/>
+        <c:crossAx val="617512824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619754632"/>
+        <c:axId val="617512824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9127,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619755808"/>
+        <c:crossAx val="617512040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9983,8 +9983,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619753848"/>
-        <c:axId val="619752672"/>
+        <c:axId val="617512432"/>
+        <c:axId val="617526936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10251,11 +10251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619753456"/>
-        <c:axId val="619753064"/>
+        <c:axId val="617524584"/>
+        <c:axId val="617524192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619753848"/>
+        <c:axId val="617512432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10298,7 +10298,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619752672"/>
+        <c:crossAx val="617526936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10306,7 +10306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619752672"/>
+        <c:axId val="617526936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10357,12 +10357,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619753848"/>
+        <c:crossAx val="617512432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619753064"/>
+        <c:axId val="617524192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10399,12 +10399,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619753456"/>
+        <c:crossAx val="617524584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619753456"/>
+        <c:axId val="617524584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10414,7 +10414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="619753064"/>
+        <c:crossAx val="617524192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10901,11 +10901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="623898096"/>
-        <c:axId val="623898880"/>
+        <c:axId val="621317408"/>
+        <c:axId val="621310352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="623898096"/>
+        <c:axId val="621317408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10948,7 +10948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623898880"/>
+        <c:crossAx val="621310352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10956,7 +10956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="623898880"/>
+        <c:axId val="621310352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11007,7 +11007,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623898096"/>
+        <c:crossAx val="621317408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16214,14 +16214,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -17665,7 +17665,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U56" sqref="U56"/>
+      <selection pane="bottomRight" activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Health_Git.xlsx
+++ b/Health_Git.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="5460" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kyon" sheetId="3" r:id="rId1"/>
@@ -1756,11 +1756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="617515176"/>
-        <c:axId val="617519880"/>
+        <c:axId val="592256864"/>
+        <c:axId val="592260392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617515176"/>
+        <c:axId val="592256864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1803,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617519880"/>
+        <c:crossAx val="592260392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617519880"/>
+        <c:axId val="592260392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1862,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617515176"/>
+        <c:crossAx val="592256864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2718,8 +2718,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617517920"/>
-        <c:axId val="617515960"/>
+        <c:axId val="592261568"/>
+        <c:axId val="592261176"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2992,11 +2992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617521056"/>
-        <c:axId val="617519096"/>
+        <c:axId val="592262352"/>
+        <c:axId val="592261960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617517920"/>
+        <c:axId val="592261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3039,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617515960"/>
+        <c:crossAx val="592261176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3047,7 +3047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617515960"/>
+        <c:axId val="592261176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,12 +3098,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617517920"/>
+        <c:crossAx val="592261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617519096"/>
+        <c:axId val="592261960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,12 +3140,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617521056"/>
+        <c:crossAx val="592262352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617521056"/>
+        <c:axId val="592262352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="617519096"/>
+        <c:crossAx val="592261960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3779,11 +3779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="617522232"/>
-        <c:axId val="617511256"/>
+        <c:axId val="594396504"/>
+        <c:axId val="594403560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617522232"/>
+        <c:axId val="594396504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3826,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617511256"/>
+        <c:crossAx val="594403560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3834,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617511256"/>
+        <c:axId val="594403560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3885,7 +3885,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617522232"/>
+        <c:crossAx val="594396504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,552 +4523,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yoshi!$A$18:$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>尿素窒素</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mg/dL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>≦20.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>yoshi!$D$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>H17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>H18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>H20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>H21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>H24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>H25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>H26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>H27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>H28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>H28.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>H28.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>H29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>H30.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>H30.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>H30.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>H30.10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>R01.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>R01.11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>yoshi!$D$18:$X$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.0">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.0">
-                  <c:v>8.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-583A-44F1-AEC3-4CE79FE54521}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yoshi!$A$19:$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ｸﾚｱﾁﾆﾝ</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mg/dL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>≦1.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>yoshi!$D$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>H17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>H18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>H20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>H21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>H24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>H25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>H26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>H27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>H28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>H28.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>H28.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>H29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>H30.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>H30.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>H30.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>H30.10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>R01.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>R01.11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>yoshi!$D$19:$X$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>0.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-583A-44F1-AEC3-4CE79FE54521}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>yoshi!$A$20:$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>尿酸</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mg/dL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>≦7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>yoshi!$D$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>H17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>H18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>H20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>H21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>H22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>H24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>H25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>H26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>H27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>H28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>H28.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>H28.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>H29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>H30.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>H30.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>H30.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>H30.10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>R01.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>R01.11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>yoshi!$D$20:$X$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.0">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.0">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.0">
-                  <c:v>5.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-583A-44F1-AEC3-4CE79FE54521}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
@@ -5260,12 +4714,575 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617517528"/>
-        <c:axId val="617513216"/>
+        <c:axId val="594401992"/>
+        <c:axId val="594398856"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoshi!$A$18:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>尿素窒素</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mg/dL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>≦20.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>yoshi!$D$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>H17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>H18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>H19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>H20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>H22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>H26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>H27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>H28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>H28.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>H28.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>H29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>H30.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>H30.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H30.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>H30.10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R01.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R01.11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoshi!$D$18:$X$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-583A-44F1-AEC3-4CE79FE54521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoshi!$A$19:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ｸﾚｱﾁﾆﾝ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mg/dL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>≦1.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>yoshi!$D$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>H17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>H18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>H19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>H20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>H22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>H26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>H27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>H28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>H28.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>H28.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>H29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>H30.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>H30.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H30.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>H30.10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R01.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R01.11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoshi!$D$19:$X$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-583A-44F1-AEC3-4CE79FE54521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yoshi!$A$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>尿酸</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mg/dL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>≦7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>yoshi!$D$2:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>H17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>H18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>H19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>H20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>H21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>H22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>H25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>H26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>H27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>H28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>H28.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>H28.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>H29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>H30.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>H30.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>H30.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>H30.10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R01.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R01.11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>yoshi!$D$20:$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-583A-44F1-AEC3-4CE79FE54521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="602407384"/>
+        <c:axId val="602414048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617517528"/>
+        <c:axId val="594401992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5325,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617513216"/>
+        <c:crossAx val="594398856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5316,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617513216"/>
+        <c:axId val="594398856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,10 +5384,69 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617517528"/>
+        <c:crossAx val="594401992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="602414048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602407384"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="602407384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="602414048"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6566,8 +6642,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617514392"/>
-        <c:axId val="617516744"/>
+        <c:axId val="594405128"/>
+        <c:axId val="594406304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6948,11 +7024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617526152"/>
-        <c:axId val="617525760"/>
+        <c:axId val="594405520"/>
+        <c:axId val="594404344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617514392"/>
+        <c:axId val="594405128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,7 +7071,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617516744"/>
+        <c:crossAx val="594406304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7003,7 +7079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617516744"/>
+        <c:axId val="594406304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,12 +7130,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617514392"/>
+        <c:crossAx val="594405128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617525760"/>
+        <c:axId val="594404344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7096,12 +7172,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617526152"/>
+        <c:crossAx val="594405520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617526152"/>
+        <c:axId val="594405520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7111,7 +7187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="617525760"/>
+        <c:crossAx val="594404344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7952,11 +8028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="617524976"/>
-        <c:axId val="617526544"/>
+        <c:axId val="594402384"/>
+        <c:axId val="594407480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617524976"/>
+        <c:axId val="594402384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7999,7 +8075,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617526544"/>
+        <c:crossAx val="594407480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8007,7 +8083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617526544"/>
+        <c:axId val="594407480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8058,7 +8134,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617524976"/>
+        <c:crossAx val="594402384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9021,11 +9097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="617512040"/>
-        <c:axId val="617512824"/>
+        <c:axId val="594395720"/>
+        <c:axId val="594396896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617512040"/>
+        <c:axId val="594395720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9144,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617512824"/>
+        <c:crossAx val="594396896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617512824"/>
+        <c:axId val="594396896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9203,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617512040"/>
+        <c:crossAx val="594395720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9983,8 +10059,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617512432"/>
-        <c:axId val="617526936"/>
+        <c:axId val="594400032"/>
+        <c:axId val="594397680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10251,11 +10327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617524584"/>
-        <c:axId val="617524192"/>
+        <c:axId val="594398464"/>
+        <c:axId val="594398072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617512432"/>
+        <c:axId val="594400032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10298,7 +10374,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617526936"/>
+        <c:crossAx val="594397680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10306,7 +10382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617526936"/>
+        <c:axId val="594397680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10357,12 +10433,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617512432"/>
+        <c:crossAx val="594400032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617524192"/>
+        <c:axId val="594398072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10399,12 +10475,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617524584"/>
+        <c:crossAx val="594398464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617524584"/>
+        <c:axId val="594398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10414,7 +10490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="617524192"/>
+        <c:crossAx val="594398072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10901,11 +10977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="621317408"/>
-        <c:axId val="621310352"/>
+        <c:axId val="594401600"/>
+        <c:axId val="594406696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="621317408"/>
+        <c:axId val="594401600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10948,7 +11024,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621310352"/>
+        <c:crossAx val="594406696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10956,7 +11032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621310352"/>
+        <c:axId val="594406696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11007,7 +11083,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621317408"/>
+        <c:crossAx val="594401600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16111,7 +16187,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16149,7 +16225,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16187,7 +16263,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16230,7 +16306,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16268,7 +16344,7 @@
         <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16306,7 +16382,7 @@
         <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16349,7 +16425,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16387,7 +16463,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16425,7 +16501,7 @@
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17665,7 +17741,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB57" sqref="AB57"/>
+      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
